--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_17.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>839518.8156321776</v>
+        <v>842838.3619050824</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443467</v>
+        <v>18621122.00443468</v>
       </c>
     </row>
     <row r="9">
@@ -656,76 +656,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>171.0294181666926</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>80.86228322859418</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>113.950365236779</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -908,55 +908,55 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1029,19 +1029,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X6" t="n">
-        <v>104.6224667287184</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.5178444382804</v>
+        <v>80.86228322859426</v>
       </c>
     </row>
     <row r="7">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1148,13 +1148,13 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>205.5178444382804</v>
@@ -1209,16 +1209,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>14.09932709679963</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1266,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>47.29627918133471</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1379,61 +1379,61 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="W11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G11" t="n">
+      <c r="X11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="H11" t="n">
-        <v>171.0294181666926</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>19.84004947482878</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,20 +1494,20 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V12" t="n">
-        <v>120.0500723064956</v>
-      </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="13">
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1622,47 +1622,47 @@
         <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>171.0294181666926</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="I14" t="n">
-        <v>169.0708280266249</v>
-      </c>
-      <c r="J14" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1683,16 +1683,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>81.13095251577731</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -1740,19 +1740,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>25.30032371162179</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
       <c r="Y15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>14.83685490770588</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1807,10 +1807,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1853,55 +1853,55 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S17" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T17" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U17" t="n">
+        <v>102.3382270926889</v>
+      </c>
+      <c r="V17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1938,13 +1938,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,28 +1968,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>62.52515684565924</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>28.14326276152199</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2096,13 +2096,13 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2132,10 +2132,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>241.0142888776591</v>
@@ -2144,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2160,25 +2160,25 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>63.92604592956821</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.94457638346498</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -2214,10 +2214,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2245,10 +2245,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2318,73 +2318,73 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R23" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S23" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T23" t="n">
-        <v>72.47049842454879</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="24">
@@ -2394,28 +2394,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,13 +2445,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>164.4624917799569</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>121.9551940726745</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2515,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9.234466016111835</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
+        <v>200.3360962888297</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="27">
@@ -2640,10 +2640,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>113.1682173871407</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2694,13 +2694,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="28">
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2752,13 +2752,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2792,10 +2792,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2834,31 +2834,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>114.9581870864144</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2886,13 +2886,13 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>34.66067414728059</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>178.3785751003045</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3029,13 +3029,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3044,13 +3044,13 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3074,7 +3074,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3083,19 +3083,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3126,10 +3126,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>84.4730545048111</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,16 +3153,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3171,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>131.1096832932227</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3187,55 +3187,55 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3275,19 +3275,19 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3308,22 +3308,22 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>29.78216610882018</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3345,25 +3345,25 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>80.47961400380896</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>62.13484214871502</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -3405,13 +3405,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3509,16 +3509,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="F38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,10 +3554,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,31 +3579,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>150.1436798683941</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3639,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>29.1700283366857</v>
       </c>
     </row>
     <row r="40">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3746,59 +3746,59 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F41" t="n">
+      <c r="T41" t="n">
+        <v>171.0294181666926</v>
+      </c>
+      <c r="U41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G41" t="n">
+      <c r="V41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>114.6969565630368</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3828,10 +3828,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>74.93556577626661</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3974,17 +3974,17 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C44" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="D44" t="n">
-        <v>159.0801288120801</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4034,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4053,10 +4053,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>13.74034240511223</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4104,10 +4104,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>205.5178444382804</v>
@@ -4119,10 +4119,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y45" t="n">
-        <v>47.49940747082301</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="46">
@@ -4183,19 +4183,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>224.0352098159517</v>
+        <v>396.792197863116</v>
       </c>
       <c r="C2" t="n">
-        <v>224.0352098159517</v>
+        <v>396.792197863116</v>
       </c>
       <c r="D2" t="n">
-        <v>224.0352098159517</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="E2" t="n">
-        <v>16.44142755506243</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="F2" t="n">
         <v>16.44142755506243</v>
@@ -4337,43 +4337,43 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S2" t="n">
-        <v>614.4775954922324</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T2" t="n">
-        <v>614.4775954922324</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U2" t="n">
-        <v>614.4775954922324</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V2" t="n">
-        <v>431.628992076841</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W2" t="n">
-        <v>431.628992076841</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="X2" t="n">
-        <v>431.628992076841</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="Y2" t="n">
-        <v>224.0352098159517</v>
+        <v>604.3859801240053</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
@@ -4413,19 +4413,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>232.5025681519757</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>435.9652341458732</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N3" t="n">
-        <v>639.4279001397708</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O3" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4434,25 +4434,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>639.2227743377304</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T3" t="n">
-        <v>639.2227743377304</v>
+        <v>432.3831247296267</v>
       </c>
       <c r="U3" t="n">
-        <v>639.2227743377304</v>
+        <v>224.7893424687375</v>
       </c>
       <c r="V3" t="n">
-        <v>639.2227743377304</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="W3" t="n">
-        <v>431.628992076841</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="X3" t="n">
-        <v>224.0352098159517</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="4">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C5" t="n">
-        <v>406.8838132313431</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G5" t="n">
         <v>16.44142755506243</v>
@@ -4574,10 +4574,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N5" t="n">
-        <v>706.4576170384386</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O5" t="n">
         <v>822.0713777531216</v>
@@ -4604,13 +4604,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X5" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y5" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>340.5829991502264</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C6" t="n">
-        <v>166.1299698690994</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
@@ -4650,46 +4650,46 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="M6" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N6" t="n">
-        <v>549.2141532458947</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O6" t="n">
-        <v>752.6768192397923</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U6" t="n">
-        <v>822.0713777531216</v>
+        <v>513.308066045118</v>
       </c>
       <c r="V6" t="n">
-        <v>822.0713777531216</v>
+        <v>513.308066045118</v>
       </c>
       <c r="W6" t="n">
-        <v>822.0713777531216</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="X6" t="n">
-        <v>716.3921184311838</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="Y6" t="n">
-        <v>508.7983361702945</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="7">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>199.2900309704538</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="C8" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="D8" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="E8" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="F8" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="G8" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="H8" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
@@ -4811,13 +4811,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N8" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O8" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
@@ -4835,19 +4835,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="W8" t="n">
-        <v>614.4775954922324</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="X8" t="n">
-        <v>406.8838132313431</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="Y8" t="n">
-        <v>199.2900309704538</v>
+        <v>443.6989813239244</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>513.308066045118</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C9" t="n">
-        <v>338.8550367639911</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D9" t="n">
-        <v>189.9206271027398</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E9" t="n">
-        <v>30.68317209728428</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
-        <v>30.68317209728428</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G9" t="n">
-        <v>30.68317209728428</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H9" t="n">
-        <v>30.68317209728428</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I9" t="n">
         <v>16.44142755506243</v>
@@ -4887,46 +4887,46 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
+        <v>141.7989876128999</v>
+      </c>
+      <c r="M9" t="n">
         <v>345.2616536067974</v>
       </c>
-      <c r="M9" t="n">
-        <v>435.9652341458732</v>
-      </c>
       <c r="N9" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O9" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P9" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>720.9018483060073</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V9" t="n">
-        <v>720.9018483060073</v>
+        <v>566.7035761171468</v>
       </c>
       <c r="W9" t="n">
-        <v>720.9018483060073</v>
+        <v>566.7035761171468</v>
       </c>
       <c r="X9" t="n">
-        <v>720.9018483060073</v>
+        <v>566.7035761171468</v>
       </c>
       <c r="Y9" t="n">
-        <v>513.308066045118</v>
+        <v>359.1097938562575</v>
       </c>
     </row>
     <row r="10">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>604.3859801240053</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C11" t="n">
-        <v>604.3859801240053</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D11" t="n">
-        <v>604.3859801240053</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E11" t="n">
-        <v>604.3859801240053</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F11" t="n">
-        <v>396.792197863116</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G11" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
         <v>16.44142755506243</v>
@@ -5042,13 +5042,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
         <v>583.2163723184226</v>
@@ -5060,31 +5060,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V11" t="n">
-        <v>604.3859801240053</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W11" t="n">
-        <v>604.3859801240053</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X11" t="n">
-        <v>604.3859801240053</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y11" t="n">
-        <v>604.3859801240053</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16.44142755506243</v>
+        <v>36.481881570041</v>
       </c>
       <c r="C12" t="n">
-        <v>16.44142755506243</v>
+        <v>36.481881570041</v>
       </c>
       <c r="D12" t="n">
-        <v>16.44142755506243</v>
+        <v>36.481881570041</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>36.481881570041</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>36.481881570041</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>36.481881570041</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>36.481881570041</v>
       </c>
       <c r="I12" t="n">
         <v>16.44142755506243</v>
@@ -5124,16 +5124,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>232.5025681519757</v>
+        <v>211.6833797714288</v>
       </c>
       <c r="M12" t="n">
-        <v>435.9652341458732</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N12" t="n">
-        <v>639.4279001397708</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O12" t="n">
-        <v>639.4279001397708</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P12" t="n">
         <v>822.0713777531216</v>
@@ -5142,28 +5142,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>345.2979091154422</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U12" t="n">
-        <v>137.7041268545529</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V12" t="n">
-        <v>16.44142755506243</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="W12" t="n">
-        <v>16.44142755506243</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="X12" t="n">
-        <v>16.44142755506243</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.44142755506243</v>
+        <v>204.697218590109</v>
       </c>
     </row>
     <row r="13">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C14" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D14" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E14" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F14" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G14" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N14" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O14" t="n">
         <v>732.4113224610707</v>
@@ -5297,31 +5297,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X14" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y14" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>106.7410566979059</v>
+        <v>272.8449139228332</v>
       </c>
       <c r="C15" t="n">
-        <v>106.7410566979059</v>
+        <v>98.39188464170618</v>
       </c>
       <c r="D15" t="n">
-        <v>106.7410566979059</v>
+        <v>98.39188464170618</v>
       </c>
       <c r="E15" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F15" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
         <v>16.44142755506243</v>
@@ -5358,49 +5358,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>29.03990215807806</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>232.5025681519757</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N15" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O15" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P15" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>547.4845037566762</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T15" t="n">
-        <v>547.4845037566762</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U15" t="n">
-        <v>521.9286212196845</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="V15" t="n">
-        <v>521.9286212196845</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="W15" t="n">
-        <v>314.3348389587952</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="X15" t="n">
-        <v>314.3348389587952</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="Y15" t="n">
-        <v>106.7410566979059</v>
+        <v>441.0602509429012</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="C16" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="D16" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="E16" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="F16" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="G16" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="H16" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="I16" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J16" t="n">
         <v>38.93586374282289</v>
@@ -5455,31 +5455,31 @@
         <v>148.224788009872</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R16" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S16" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T16" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U16" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V16" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W16" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X16" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5601,7 +5601,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N18" t="n">
         <v>542.809531908403</v>
@@ -5616,28 +5616,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>900.9004314241117</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>698.7138367828777</v>
       </c>
       <c r="U18" t="n">
-        <v>458.8561487300053</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="V18" t="n">
-        <v>223.7040404982626</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W18" t="n">
-        <v>223.7040404982626</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X18" t="n">
-        <v>223.7040404982626</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>22.57944215788615</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>752.9257720901863</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T20" t="n">
-        <v>752.9257720901863</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U20" t="n">
-        <v>509.4769954460863</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V20" t="n">
-        <v>266.0282188019862</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W20" t="n">
-        <v>266.0282188019862</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X20" t="n">
-        <v>22.57944215788615</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y20" t="n">
-        <v>22.57944215788615</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>318.0035561858384</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="C21" t="n">
-        <v>318.0035561858384</v>
+        <v>84.60703932821886</v>
       </c>
       <c r="D21" t="n">
-        <v>318.0035561858384</v>
+        <v>84.60703932821886</v>
       </c>
       <c r="E21" t="n">
-        <v>158.7661011803829</v>
+        <v>84.60703932821886</v>
       </c>
       <c r="F21" t="n">
-        <v>158.7661011803829</v>
+        <v>84.60703932821886</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>84.60703932821886</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>84.60703932821886</v>
       </c>
       <c r="I21" t="n">
         <v>20.03527576299844</v>
@@ -5838,43 +5838,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>725.4530095217538</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>928.7596036081463</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>755.3422590588152</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>553.1556644175812</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>553.1556644175812</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V21" t="n">
-        <v>318.0035561858384</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W21" t="n">
-        <v>318.0035561858384</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X21" t="n">
-        <v>318.0035561858384</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y21" t="n">
-        <v>318.0035561858384</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="22">
@@ -5893,7 +5893,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="E22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
         <v>19.28114311021272</v>
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>518.2486856454962</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C23" t="n">
-        <v>274.7999090013961</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D23" t="n">
-        <v>274.7999090013961</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E23" t="n">
-        <v>274.7999090013961</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F23" t="n">
-        <v>274.7999090013961</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>518.2486856454962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W23" t="n">
-        <v>518.2486856454962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X23" t="n">
-        <v>518.2486856454962</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y23" t="n">
-        <v>518.2486856454962</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>667.4527462414319</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C24" t="n">
-        <v>667.4527462414319</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>667.4527462414319</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6075,16 +6075,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N24" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6093,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>790.6398109613051</v>
+        <v>797.9334264399727</v>
       </c>
       <c r="U24" t="n">
-        <v>790.6398109613051</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="V24" t="n">
-        <v>790.6398109613051</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="W24" t="n">
-        <v>790.6398109613051</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="X24" t="n">
-        <v>790.6398109613051</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="Y24" t="n">
-        <v>667.4527462414319</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="25">
@@ -6163,25 +6163,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C26" t="n">
         <v>31.35113235729608</v>
@@ -6251,25 +6251,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>284.1276524520142</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W26" t="n">
-        <v>284.1276524520142</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X26" t="n">
-        <v>284.1276524520142</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y26" t="n">
-        <v>284.1276524520142</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>292.8299288097498</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>292.8299288097498</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>292.8299288097498</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>133.5924738042943</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
         <v>19.28114311021272</v>
@@ -6309,13 +6309,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
+        <v>374.6018090363993</v>
+      </c>
+      <c r="N27" t="n">
         <v>542.809531908403</v>
-      </c>
-      <c r="N27" t="n">
-        <v>781.4136778972854</v>
       </c>
       <c r="O27" t="n">
         <v>781.4136778972854</v>
@@ -6342,13 +6342,13 @@
         <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>500.6814290152826</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>292.8299288097498</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y27" t="n">
-        <v>292.8299288097498</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>475.3318284112885</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>231.8830517671884</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>231.8830517671884</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W29" t="n">
-        <v>231.8830517671884</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X29" t="n">
-        <v>231.8830517671884</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y29" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6516,46 +6516,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>55.04605772994853</v>
+        <v>307.1033079837604</v>
       </c>
       <c r="C30" t="n">
-        <v>55.04605772994853</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D30" t="n">
-        <v>55.04605772994853</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E30" t="n">
-        <v>55.04605772994853</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F30" t="n">
-        <v>55.04605772994853</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G30" t="n">
-        <v>55.04605772994853</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H30" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6564,28 +6564,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U30" t="n">
-        <v>533.6469426057913</v>
+        <v>307.1033079837604</v>
       </c>
       <c r="V30" t="n">
-        <v>298.4948343740486</v>
+        <v>307.1033079837604</v>
       </c>
       <c r="W30" t="n">
-        <v>55.04605772994853</v>
+        <v>307.1033079837604</v>
       </c>
       <c r="X30" t="n">
-        <v>55.04605772994853</v>
+        <v>307.1033079837604</v>
       </c>
       <c r="Y30" t="n">
-        <v>55.04605772994853</v>
+        <v>307.1033079837604</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>467.067986854209</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C32" t="n">
-        <v>467.067986854209</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D32" t="n">
-        <v>467.067986854209</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E32" t="n">
-        <v>467.067986854209</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F32" t="n">
-        <v>467.067986854209</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G32" t="n">
-        <v>467.067986854209</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H32" t="n">
-        <v>223.6192102101089</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6722,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V32" t="n">
-        <v>953.9655401424092</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W32" t="n">
-        <v>710.516763498309</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X32" t="n">
-        <v>467.067986854209</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y32" t="n">
-        <v>467.067986854209</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>279.0604900729671</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C33" t="n">
-        <v>104.6074607918401</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>104.6074607918401</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>104.6074607918401</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>104.6074607918401</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>104.6074607918401</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>104.6074607918401</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>304.2053859195205</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>542.809531908403</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U33" t="n">
-        <v>862.8876260635219</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V33" t="n">
-        <v>862.8876260635219</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W33" t="n">
-        <v>862.8876260635219</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X33" t="n">
-        <v>655.0361258579891</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y33" t="n">
-        <v>447.2758270930352</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="34">
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
         <v>829.5248650203655</v>
@@ -6883,25 +6883,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>738.7078125165641</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="C35" t="n">
-        <v>738.7078125165641</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="D35" t="n">
-        <v>738.7078125165641</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="E35" t="n">
-        <v>738.7078125165641</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="F35" t="n">
-        <v>506.1786963984129</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G35" t="n">
-        <v>262.7299197543128</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T35" t="n">
-        <v>738.7078125165641</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U35" t="n">
-        <v>738.7078125165641</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V35" t="n">
-        <v>738.7078125165641</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="W35" t="n">
-        <v>738.7078125165641</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="X35" t="n">
-        <v>738.7078125165641</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="Y35" t="n">
-        <v>738.7078125165641</v>
+        <v>243.9530410142718</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>964.0571555106362</v>
+        <v>304.9965798960495</v>
       </c>
       <c r="C36" t="n">
-        <v>789.6041262295092</v>
+        <v>304.9965798960495</v>
       </c>
       <c r="D36" t="n">
-        <v>640.669716568258</v>
+        <v>304.9965798960495</v>
       </c>
       <c r="E36" t="n">
-        <v>481.4322615628025</v>
+        <v>304.9965798960495</v>
       </c>
       <c r="F36" t="n">
-        <v>334.8977035896875</v>
+        <v>304.9965798960495</v>
       </c>
       <c r="G36" t="n">
-        <v>196.166878172303</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H36" t="n">
-        <v>82.7977425798823</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
         <v>20.03527576299844</v>
@@ -7020,19 +7020,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7053,13 +7053,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X36" t="n">
-        <v>964.0571555106362</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y36" t="n">
-        <v>964.0571555106362</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I37" t="n">
         <v>829.5248650203655</v>
@@ -7129,16 +7129,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="C38" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="D38" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="E38" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="F38" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="G38" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C38" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D38" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E38" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F38" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G38" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7202,22 +7202,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>369.484465818592</v>
+        <v>592.9597988536757</v>
       </c>
       <c r="C39" t="n">
-        <v>369.484465818592</v>
+        <v>418.5067695725487</v>
       </c>
       <c r="D39" t="n">
-        <v>369.484465818592</v>
+        <v>269.5723599112974</v>
       </c>
       <c r="E39" t="n">
-        <v>369.484465818592</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F39" t="n">
-        <v>222.9499078454769</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G39" t="n">
-        <v>222.9499078454769</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H39" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7257,19 +7257,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>178.8501590306595</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>417.4543050195419</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7278,25 +7278,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>812.3968728152886</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>812.3968728152886</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U39" t="n">
-        <v>812.3968728152886</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V39" t="n">
-        <v>577.2447645835459</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W39" t="n">
-        <v>577.2447645835459</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X39" t="n">
-        <v>577.2447645835459</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y39" t="n">
-        <v>369.484465818592</v>
+        <v>761.1751358737438</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C41" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D41" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E41" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G41" t="n">
         <v>16.44142755506243</v>
@@ -7418,43 +7418,43 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N41" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O41" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U41" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V41" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W41" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X41" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y41" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>16.44142755506243</v>
+        <v>238.668476211275</v>
       </c>
       <c r="C42" t="n">
-        <v>16.44142755506243</v>
+        <v>238.668476211275</v>
       </c>
       <c r="D42" t="n">
-        <v>16.44142755506243</v>
+        <v>238.668476211275</v>
       </c>
       <c r="E42" t="n">
-        <v>16.44142755506243</v>
+        <v>238.668476211275</v>
       </c>
       <c r="F42" t="n">
-        <v>16.44142755506243</v>
+        <v>92.13391823816002</v>
       </c>
       <c r="G42" t="n">
         <v>16.44142755506243</v>
@@ -7494,16 +7494,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>211.6833797714288</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
-        <v>415.1460457653264</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N42" t="n">
-        <v>618.608711759224</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O42" t="n">
-        <v>822.0713777531216</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P42" t="n">
         <v>822.0713777531216</v>
@@ -7512,28 +7512,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T42" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V42" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W42" t="n">
-        <v>339.8907214957869</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X42" t="n">
-        <v>339.8907214957869</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y42" t="n">
-        <v>132.2969392348976</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="43">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.792197863116</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C44" t="n">
-        <v>189.1984156022267</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D44" t="n">
-        <v>28.51141680214578</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E44" t="n">
-        <v>28.51141680214578</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F44" t="n">
-        <v>28.51141680214578</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G44" t="n">
-        <v>28.51141680214578</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="H44" t="n">
         <v>28.51141680214578</v>
@@ -7655,10 +7655,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N44" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O44" t="n">
         <v>732.4113224610707</v>
@@ -7667,31 +7667,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V44" t="n">
-        <v>811.9797623848946</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W44" t="n">
-        <v>811.9797623848946</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X44" t="n">
-        <v>811.9797623848946</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y44" t="n">
-        <v>604.3859801240053</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>190.8944568361894</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="C45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
@@ -7734,16 +7734,16 @@
         <v>219.90409354896</v>
       </c>
       <c r="M45" t="n">
-        <v>423.3667595428576</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N45" t="n">
-        <v>618.608711759224</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O45" t="n">
-        <v>822.0713777531216</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P45" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7752,25 +7752,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>446.4674385625565</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>238.8736563016672</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V45" t="n">
-        <v>238.8736563016672</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W45" t="n">
-        <v>238.8736563016672</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X45" t="n">
-        <v>238.8736563016672</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y45" t="n">
-        <v>190.8944568361894</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="46">
@@ -7831,16 +7831,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="S46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
         <v>16.44142755506243</v>
@@ -7985,16 +7985,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
-        <v>434.9309080348713</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,22 +8061,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>230.174158102173</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8222,13 +8222,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>435.8640776655532</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N5" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>231.2329957552695</v>
@@ -8298,22 +8298,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>230.174158102173</v>
       </c>
       <c r="M6" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>131.836493543131</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8459,16 +8459,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8535,13 +8535,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O9" t="n">
         <v>348.1140888827248</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,16 +8690,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N11" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8772,7 +8772,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>230.174158102173</v>
+        <v>209.1446748894994</v>
       </c>
       <c r="M12" t="n">
         <v>347.6518783602987</v>
@@ -8781,10 +8781,10 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -8927,19 +8927,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9006,16 +9006,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>151.2801117021122</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O15" t="n">
         <v>348.1140888827248</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9249,10 +9249,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N18" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9486,10 +9486,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9498,7 +9498,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,19 +9723,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,16 +9957,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10191,22 +10191,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10428,16 +10428,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>299.7328472056018</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10668,22 +10668,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,22 +10905,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,16 +11066,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11142,10 +11142,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>335.768472927719</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>347.6518783602987</v>
+        <v>154.8597658442563</v>
       </c>
       <c r="N42" t="n">
         <v>336.8595565216137</v>
@@ -11154,7 +11154,7 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11303,13 +11303,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11382,19 +11382,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>328.5558052311782</v>
+        <v>279.489774794024</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,19 +22544,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E2" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>235.8466275750188</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
@@ -22589,13 +22589,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22604,16 +22604,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>146.7321410888975</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22647,7 +22647,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22674,25 +22674,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>90.82088787524364</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>86.21436345804264</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22796,7 +22796,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22844,7 +22844,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22860,13 +22860,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22884,7 +22884,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,7 +22908,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22917,19 +22917,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X6" t="n">
-        <v>101.150518474759</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1648513390239543</v>
+        <v>124.8204125487101</v>
       </c>
     </row>
     <row r="7">
@@ -23021,7 +23021,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>184.2527743897701</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23036,13 +23036,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23075,16 +23075,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>82.27482488121163</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>180.7200942177732</v>
@@ -23097,16 +23097,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23118,7 +23118,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>75.29730575461545</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23145,7 +23145,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23154,10 +23154,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>185.5043079680906</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -23258,7 +23258,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23267,13 +23267,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>168.4453839490745</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23300,7 +23300,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23315,13 +23315,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>122.2344140318545</v>
+        <v>146.7321410888975</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23334,7 +23334,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23355,7 +23355,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>69.5565833765863</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23382,19 +23382,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>112.7505148429297</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23403,7 +23403,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="13">
@@ -23501,7 +23501,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23510,13 +23510,13 @@
         <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>41.40506154378102</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,19 +23537,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>37.99065141955279</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23558,7 +23558,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23571,16 +23571,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>76.51412793962363</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23592,7 +23592,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23619,7 +23619,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23628,19 +23628,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>200.641058369353</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23671,10 +23671,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,10 +23695,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23741,19 +23741,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,22 +23774,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>149.0074258151476</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23826,13 +23826,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,28 +23856,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>109.1580142581786</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>197.7981193194528</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23969,7 +23969,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>362.0075757138109</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23984,13 +23984,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0.7562331984329429</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,7 +24011,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24020,10 +24020,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>86.73796959247585</v>
@@ -24032,7 +24032,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24048,25 +24048,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>25.47058692184687</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,7 +24093,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>65.21325776917814</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24102,10 +24102,10 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -24133,10 +24133,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F22" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>167.9909793584588</v>
@@ -24206,7 +24206,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24218,7 +24218,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24227,7 +24227,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,31 +24248,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>150.6253511395826</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24282,28 +24282,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24333,13 +24333,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>35.7022369148647</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24351,7 +24351,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>83.7275017046299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24403,7 +24403,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
         <v>86.16204325169439</v>
@@ -24412,7 +24412,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>93.55107118671071</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24424,7 +24424,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,10 +24440,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>373.4993756473688</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24491,25 +24491,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>127.4161621813053</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24528,10 +24528,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>31.90099500624314</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24582,13 +24582,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="28">
@@ -24604,7 +24604,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24640,13 +24640,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24680,10 +24680,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24698,7 +24698,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24722,19 +24722,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>108.137662477717</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24759,7 +24759,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24774,13 +24774,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>54.73595870413449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,22 +24804,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>47.56280698067036</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24886,7 +24886,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24917,13 +24917,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24932,13 +24932,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>8.181203141508689</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24962,7 +24962,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -24971,19 +24971,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>210.8693737747013</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24993,10 +24993,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25014,10 +25014,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>4.923578346603975</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,16 +25041,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25059,7 +25059,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>74.66330191025477</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25123,7 +25123,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25163,19 +25163,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>176.6722207847417</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,22 +25196,22 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>297.9700923613148</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25233,25 +25233,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>56.86390315940167</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>27.26179070270006</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25293,13 +25293,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25330,7 +25330,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25369,7 +25369,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25397,16 +25397,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>169.6449844288198</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25442,10 +25442,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>21.14182795086677</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25467,31 +25467,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25518,7 +25518,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>21.53949123544368</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -25527,7 +25527,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25536,7 +25536,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>176.5126674406187</v>
       </c>
     </row>
     <row r="40">
@@ -25594,7 +25594,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25609,7 +25609,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25634,13 +25634,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25670,22 +25670,22 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>52.06643139743875</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25694,7 +25694,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>205.2178212748162</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,7 +25704,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>51.8362270868305</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25716,10 +25716,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>62.40795138694402</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25752,10 +25752,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -25862,16 +25862,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>195.6029128086028</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25880,7 +25880,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>170.4039740891423</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25907,7 +25907,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25922,7 +25922,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25941,10 +25941,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>158.9681565832035</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25965,7 +25965,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25992,10 +25992,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>20.42353764269441</v>
@@ -26007,10 +26007,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
-        <v>158.1832883064814</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="46">
@@ -26071,7 +26071,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26083,7 +26083,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>418057.7508625691</v>
+        <v>418057.750862569</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>440325.7822080312</v>
+        <v>440325.782208031</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>440325.7822080309</v>
+        <v>440325.7822080312</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>440325.7822080312</v>
+        <v>440325.7822080313</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>418057.7508625691</v>
+        <v>418057.750862569</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>418057.7508625693</v>
+        <v>418057.7508625691</v>
       </c>
     </row>
   </sheetData>
@@ -26314,7 +26314,7 @@
         <v>134093.9955596918</v>
       </c>
       <c r="C2" t="n">
-        <v>134093.9955596919</v>
+        <v>134093.9955596918</v>
       </c>
       <c r="D2" t="n">
         <v>134093.9955596919</v>
@@ -26323,13 +26323,13 @@
         <v>134093.9955596919</v>
       </c>
       <c r="F2" t="n">
-        <v>134093.9955596919</v>
+        <v>134093.9955596918</v>
       </c>
       <c r="G2" t="n">
         <v>141236.5716516325</v>
       </c>
       <c r="H2" t="n">
-        <v>141236.5716516325</v>
+        <v>141236.5716516326</v>
       </c>
       <c r="I2" t="n">
         <v>141236.5716516325</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="C4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="D4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="E4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="F4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="G4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="H4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="I4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="J4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="K4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="L4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="M4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="N4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="O4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="P4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18555.70105833492</v>
+        <v>18943.34247722131</v>
       </c>
       <c r="C6" t="n">
-        <v>87429.4576400248</v>
+        <v>87817.09905891115</v>
       </c>
       <c r="D6" t="n">
-        <v>87429.45764002483</v>
+        <v>87817.09905891118</v>
       </c>
       <c r="E6" t="n">
-        <v>121057.0576400248</v>
+        <v>121444.6990589112</v>
       </c>
       <c r="F6" t="n">
-        <v>121057.0576400248</v>
+        <v>121444.6990589112</v>
       </c>
       <c r="G6" t="n">
-        <v>116265.7542435565</v>
+        <v>116674.3274159998</v>
       </c>
       <c r="H6" t="n">
-        <v>125994.7972177236</v>
+        <v>126403.3703901669</v>
       </c>
       <c r="I6" t="n">
-        <v>125994.7972177236</v>
+        <v>126403.3703901669</v>
       </c>
       <c r="J6" t="n">
-        <v>72222.28632751416</v>
+        <v>72630.85949995743</v>
       </c>
       <c r="K6" t="n">
-        <v>125994.7972177236</v>
+        <v>126403.3703901669</v>
       </c>
       <c r="L6" t="n">
-        <v>125994.7972177236</v>
+        <v>126403.3703901669</v>
       </c>
       <c r="M6" t="n">
-        <v>125994.7972177236</v>
+        <v>126403.3703901669</v>
       </c>
       <c r="N6" t="n">
-        <v>125994.7972177236</v>
+        <v>126403.3703901669</v>
       </c>
       <c r="O6" t="n">
-        <v>121057.0576400248</v>
+        <v>121444.6990589112</v>
       </c>
       <c r="P6" t="n">
-        <v>121057.0576400249</v>
+        <v>121444.6990589112</v>
       </c>
     </row>
   </sheetData>
@@ -34705,16 +34705,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,22 +34781,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>21.52426467247106</v>
+      </c>
+      <c r="O3" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N3" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,13 +34942,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="N5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35018,22 +35018,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="M6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4947814597977008</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35179,16 +35179,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,13 +35255,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M9" t="n">
-        <v>91.61977832229879</v>
-      </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O9" t="n">
         <v>205.5178444382804</v>
@@ -35270,7 +35270,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,16 +35410,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
+        <v>185.0873001866707</v>
+      </c>
+      <c r="N11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N11" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35492,7 +35492,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>91.61977832229879</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="M12" t="n">
         <v>205.5178444382804</v>
@@ -35501,10 +35501,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35647,19 +35647,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
         <v>90.5657124162131</v>
@@ -35726,16 +35726,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>12.72573192223801</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O15" t="n">
         <v>205.5178444382804</v>
@@ -35744,7 +35744,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35969,10 +35969,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N18" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -36206,10 +36206,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36218,7 +36218,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,19 +36443,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N24" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O24" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,16 +36677,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N27" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36911,22 +36911,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37166,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37388,22 +37388,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,22 +37625,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,16 +37786,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37862,10 +37862,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>197.2140931478448</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>205.5178444382804</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="N42" t="n">
         <v>205.5178444382804</v>
@@ -37874,7 +37874,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38023,13 +38023,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38102,19 +38102,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>197.2140931478448</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842838.3619050824</v>
+        <v>843622.5078431112</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443468</v>
+        <v>18621122.00443469</v>
       </c>
     </row>
     <row r="9">
@@ -659,73 +661,73 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D2" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>171.0294181666926</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>113.950365236779</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
+        <v>13.94347069460048</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>14.83685490770588</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,70 +895,70 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1023,25 +1025,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>80.86228322859426</v>
+        <v>39.04589723677579</v>
       </c>
     </row>
     <row r="7">
@@ -1072,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>14.83685490770588</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1133,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1148,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1187,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="9">
@@ -1212,13 +1214,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1266,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V9" t="n">
-        <v>47.29627918133471</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>120.4324765878912</v>
       </c>
     </row>
     <row r="10">
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.83685490770588</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1333,10 +1335,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1388,10 +1390,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1427,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="12">
@@ -1446,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>120.0500723064956</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1467,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>19.84004947482878</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,19 +1496,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1515,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1546,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>14.83685490770588</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
@@ -1567,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,67 +1615,67 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>169.0708280266249</v>
+      </c>
+      <c r="J14" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>171.0294181666926</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,16 +1685,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>81.13095251577731</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1734,22 +1736,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>14.83685490770588</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J16" t="n">
         <v>93.35918011667277</v>
@@ -1804,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1850,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1886,22 +1888,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>62.52515684565924</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
@@ -1980,16 +1982,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2084,25 +2086,25 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2129,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2160,10 +2162,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>31.60815104066432</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2178,10 +2180,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>63.92604592956821</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2223,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2245,58 +2247,58 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2321,16 +2323,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>212.2853856434421</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2339,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2381,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,19 +2396,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>120.1190775319706</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2415,10 +2417,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,13 +2447,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>164.4624917799569</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2460,10 +2462,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2515,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -2536,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>133.186967585368</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2561,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2576,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2597,28 +2599,28 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>241.0142888776591</v>
@@ -2634,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2649,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2688,10 +2690,10 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>203.5970349704704</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
@@ -2700,7 +2702,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2752,16 +2754,16 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2795,16 +2797,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2843,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2858,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>82.69355372315668</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2886,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>178.3785751003045</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3029,61 +3031,61 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
+      <c r="I32" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.809496073036132</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R32" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>40.47627913313517</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3105,19 +3107,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>122.5327995762099</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3129,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>131.1096832932227</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3187,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3263,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>33.80371536444981</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3287,7 +3289,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3308,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3317,13 +3319,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>29.78216610882018</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3348,25 +3350,25 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>32.44882437674524</v>
       </c>
       <c r="G36" t="n">
-        <v>80.47961400380896</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3506,16 +3508,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="E38" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>241.0142888776591</v>
@@ -3524,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3591,7 +3593,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>119.3132525143586</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3600,10 +3602,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3648,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>29.1700283366857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3706,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3740,19 +3742,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3782,22 +3784,22 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3828,16 +3830,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>74.93556577626661</v>
+        <v>130.6081453182354</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3974,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3992,13 +3994,13 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4019,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4053,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>8.311618392921693</v>
       </c>
       <c r="C45" t="n">
-        <v>13.74034240511223</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4077,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4110,13 +4112,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>205.5178444382804</v>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.792197863116</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C2" t="n">
-        <v>396.792197863116</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D2" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E2" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F2" t="n">
         <v>16.44142755506243</v>
@@ -4331,49 +4333,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L2" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N2" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O2" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X2" t="n">
-        <v>604.3859801240053</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y2" t="n">
-        <v>604.3859801240053</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="3">
@@ -4410,46 +4412,46 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>345.2616536067974</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="M3" t="n">
-        <v>345.2616536067974</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N3" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O3" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>547.4845037566762</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T3" t="n">
-        <v>432.3831247296267</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U3" t="n">
+        <v>238.8736563016672</v>
+      </c>
+      <c r="V3" t="n">
         <v>224.7893424687375</v>
       </c>
-      <c r="V3" t="n">
-        <v>17.19556020784815</v>
-      </c>
       <c r="W3" t="n">
-        <v>17.19556020784815</v>
+        <v>224.7893424687375</v>
       </c>
       <c r="X3" t="n">
-        <v>17.19556020784815</v>
+        <v>224.7893424687375</v>
       </c>
       <c r="Y3" t="n">
         <v>17.19556020784815</v>
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4504,34 +4506,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C5" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D5" t="n">
         <v>16.44142755506243</v>
@@ -4574,7 +4576,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>469.413761616576</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
         <v>672.8764276104736</v>
@@ -4604,13 +4606,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W5" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X5" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y5" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.44142755506243</v>
+        <v>339.8288664974407</v>
       </c>
       <c r="C6" t="n">
-        <v>16.44142755506243</v>
+        <v>165.3758372163137</v>
       </c>
       <c r="D6" t="n">
         <v>16.44142755506243</v>
@@ -4647,22 +4649,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L6" t="n">
-        <v>232.5025681519757</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M6" t="n">
-        <v>435.9652341458732</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9652341458732</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O6" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P6" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
@@ -4671,25 +4673,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>720.9018483060073</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T6" t="n">
-        <v>720.9018483060073</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U6" t="n">
-        <v>513.308066045118</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="V6" t="n">
-        <v>513.308066045118</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="W6" t="n">
-        <v>305.7142837842288</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="X6" t="n">
-        <v>98.12050152333947</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.44142755506243</v>
+        <v>508.0442035175087</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C7" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D7" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E7" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F7" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G7" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H7" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4741,34 +4743,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R7" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S7" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T7" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U7" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V7" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W7" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X7" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y7" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>443.6989813239244</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="C8" t="n">
-        <v>443.6989813239244</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D8" t="n">
-        <v>443.6989813239244</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E8" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F8" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G8" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H8" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
@@ -4835,19 +4837,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U8" t="n">
-        <v>651.2927635848137</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V8" t="n">
-        <v>651.2927635848137</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W8" t="n">
-        <v>651.2927635848137</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X8" t="n">
-        <v>651.2927635848137</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y8" t="n">
-        <v>443.6989813239244</v>
+        <v>639.2227743377304</v>
       </c>
     </row>
     <row r="9">
@@ -4857,13 +4859,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>190.8944568361894</v>
+        <v>324.6132922217692</v>
       </c>
       <c r="C9" t="n">
-        <v>16.44142755506243</v>
+        <v>324.6132922217692</v>
       </c>
       <c r="D9" t="n">
-        <v>16.44142755506243</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E9" t="n">
         <v>16.44142755506243</v>
@@ -4887,19 +4889,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>345.2616536067974</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N9" t="n">
-        <v>366.5706756325438</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
@@ -4914,19 +4916,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="V9" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="W9" t="n">
         <v>614.4775954922324</v>
       </c>
-      <c r="V9" t="n">
-        <v>566.7035761171468</v>
-      </c>
-      <c r="W9" t="n">
-        <v>566.7035761171468</v>
-      </c>
       <c r="X9" t="n">
-        <v>566.7035761171468</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y9" t="n">
-        <v>359.1097938562575</v>
+        <v>492.8286292418372</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J10" t="n">
         <v>38.93586374282289</v>
@@ -4981,31 +4983,31 @@
         <v>148.224788009872</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.224788009872</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>224.0352098159517</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C11" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G11" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="H11" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="I11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
         <v>583.2163723184226</v>
@@ -5075,16 +5077,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V11" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W11" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X11" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y11" t="n">
-        <v>224.0352098159517</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>36.481881570041</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="C12" t="n">
-        <v>36.481881570041</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="D12" t="n">
-        <v>36.481881570041</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E12" t="n">
-        <v>36.481881570041</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
-        <v>36.481881570041</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>36.481881570041</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>36.481881570041</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
         <v>16.44142755506243</v>
@@ -5124,16 +5126,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>211.6833797714288</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>415.1460457653264</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N12" t="n">
-        <v>618.608711759224</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O12" t="n">
-        <v>822.0713777531216</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P12" t="n">
         <v>822.0713777531216</v>
@@ -5142,28 +5144,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T12" t="n">
-        <v>619.8847831118876</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U12" t="n">
-        <v>619.8847831118876</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="V12" t="n">
-        <v>412.2910008509983</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="W12" t="n">
-        <v>412.2910008509983</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="X12" t="n">
-        <v>412.2910008509983</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="Y12" t="n">
-        <v>204.697218590109</v>
+        <v>137.7041268545529</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I13" t="n">
         <v>133.2380658808762</v>
@@ -5215,34 +5217,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>431.628992076841</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C14" t="n">
-        <v>431.628992076841</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D14" t="n">
-        <v>431.628992076841</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E14" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F14" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G14" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="H14" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="I14" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L14" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
         <v>583.2163723184226</v>
@@ -5297,31 +5299,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S14" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="T14" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U14" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V14" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W14" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X14" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y14" t="n">
-        <v>431.628992076841</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="15">
@@ -5331,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>272.8449139228332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C15" t="n">
-        <v>98.39188464170618</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D15" t="n">
-        <v>98.39188464170618</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E15" t="n">
         <v>16.44142755506243</v>
@@ -5382,25 +5384,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>648.6540332037905</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U15" t="n">
-        <v>648.6540332037905</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V15" t="n">
-        <v>648.6540332037905</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W15" t="n">
-        <v>648.6540332037905</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X15" t="n">
-        <v>441.0602509429012</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y15" t="n">
-        <v>441.0602509429012</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I16" t="n">
         <v>133.2380658808762</v>
@@ -5452,34 +5454,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5595,46 +5597,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M18" t="n">
-        <v>542.809531908403</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>900.9004314241117</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>698.7138367828777</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>470.4902185192667</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>470.4902185192667</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W18" t="n">
-        <v>227.0414418751666</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="X18" t="n">
-        <v>227.0414418751666</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
         <v>19.28114311021272</v>
@@ -5695,13 +5697,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>274.0360370837871</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C20" t="n">
-        <v>274.0360370837871</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D20" t="n">
-        <v>274.0360370837871</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E20" t="n">
-        <v>274.0360370837871</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F20" t="n">
-        <v>274.0360370837871</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G20" t="n">
-        <v>274.0360370837871</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H20" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5777,25 +5779,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>517.4848137278872</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>517.4848137278872</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V20" t="n">
-        <v>274.0360370837871</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W20" t="n">
-        <v>274.0360370837871</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X20" t="n">
-        <v>274.0360370837871</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y20" t="n">
-        <v>274.0360370837871</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>259.0600686093459</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="C21" t="n">
-        <v>84.60703932821886</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="D21" t="n">
-        <v>84.60703932821886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>84.60703932821886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>84.60703932821886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>84.60703932821886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>84.60703932821886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5841,13 +5843,13 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>656.0584510084244</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5871,10 +5873,10 @@
         <v>259.0600686093459</v>
       </c>
       <c r="X21" t="n">
-        <v>259.0600686093459</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="Y21" t="n">
-        <v>259.0600686093459</v>
+        <v>51.20856840381305</v>
       </c>
     </row>
     <row r="22">
@@ -5884,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
         <v>19.28114311021272</v>
@@ -5944,16 +5946,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>233.7108255783361</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C23" t="n">
-        <v>233.7108255783361</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D23" t="n">
-        <v>233.7108255783361</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E23" t="n">
-        <v>233.7108255783361</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F23" t="n">
         <v>233.7108255783361</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6029,10 +6031,10 @@
         <v>720.6083788665362</v>
       </c>
       <c r="X23" t="n">
-        <v>477.1596022224361</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y23" t="n">
-        <v>233.7108255783361</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,43 +6044,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>193.7341723913397</v>
+        <v>380.6017161145382</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>380.6017161145382</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>231.667306453287</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>231.667306453287</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>473.4149733950735</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O24" t="n">
         <v>712.019119383956</v>
@@ -6093,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>797.9334264399727</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U24" t="n">
-        <v>569.7098081763618</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V24" t="n">
-        <v>569.7098081763618</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W24" t="n">
-        <v>569.7098081763618</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X24" t="n">
-        <v>569.7098081763618</v>
+        <v>380.6017161145382</v>
       </c>
       <c r="Y24" t="n">
-        <v>361.9495094114078</v>
+        <v>380.6017161145382</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V26" t="n">
-        <v>761.6974622895962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>307.1033079837604</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H27" t="n">
         <v>19.28114311021272</v>
@@ -6306,22 +6308,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>374.6018090363993</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6336,19 +6338,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>758.4035848333933</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>758.4035848333933</v>
       </c>
       <c r="W27" t="n">
-        <v>257.2326523711826</v>
+        <v>514.9548081892932</v>
       </c>
       <c r="X27" t="n">
-        <v>49.38115216564972</v>
+        <v>307.1033079837604</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>307.1033079837604</v>
       </c>
     </row>
     <row r="28">
@@ -6400,13 +6402,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
         <v>19.28114311021272</v>
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6491,22 +6493,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X29" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>738.7078125165641</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>307.1033079837604</v>
+        <v>102.8099852548154</v>
       </c>
       <c r="C30" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6546,46 +6548,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>307.1033079837604</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V30" t="n">
-        <v>307.1033079837604</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W30" t="n">
-        <v>307.1033079837604</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X30" t="n">
-        <v>307.1033079837604</v>
+        <v>310.5702840197694</v>
       </c>
       <c r="Y30" t="n">
-        <v>307.1033079837604</v>
+        <v>102.8099852548154</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>518.2486856454962</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C32" t="n">
-        <v>274.7999090013961</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D32" t="n">
-        <v>274.7999090013961</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E32" t="n">
-        <v>31.35113235729608</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F32" t="n">
-        <v>31.35113235729608</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G32" t="n">
-        <v>31.35113235729608</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H32" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="S32" t="n">
-        <v>802.5825927271064</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="T32" t="n">
-        <v>802.5825927271064</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U32" t="n">
-        <v>761.6974622895962</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V32" t="n">
-        <v>761.6974622895962</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="W32" t="n">
-        <v>761.6974622895962</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X32" t="n">
-        <v>761.6974622895962</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="Y32" t="n">
-        <v>518.2486856454962</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>20.03527576299844</v>
+        <v>451.2235123993538</v>
       </c>
       <c r="C33" t="n">
-        <v>20.03527576299844</v>
+        <v>451.2235123993538</v>
       </c>
       <c r="D33" t="n">
-        <v>20.03527576299844</v>
+        <v>302.2891027381025</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>143.051647732647</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6783,46 +6785,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>496.4894350879777</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O33" t="n">
-        <v>735.0935810768601</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>360.2295980564601</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V33" t="n">
-        <v>360.2295980564601</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W33" t="n">
-        <v>360.2295980564601</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X33" t="n">
-        <v>227.7955745279523</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y33" t="n">
-        <v>20.03527576299844</v>
+        <v>619.4388494194218</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>243.9530410142718</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="C35" t="n">
-        <v>243.9530410142718</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="D35" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E35" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F35" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G35" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H35" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>742.8341567219593</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T35" t="n">
-        <v>517.4848137278872</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U35" t="n">
-        <v>274.0360370837871</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V35" t="n">
-        <v>243.9530410142718</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W35" t="n">
-        <v>243.9530410142718</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X35" t="n">
-        <v>243.9530410142718</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y35" t="n">
-        <v>243.9530410142718</v>
+        <v>752.9257720901863</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>304.9965798960495</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="C36" t="n">
-        <v>304.9965798960495</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="D36" t="n">
-        <v>304.9965798960495</v>
+        <v>211.2951883952089</v>
       </c>
       <c r="E36" t="n">
-        <v>304.9965798960495</v>
+        <v>52.05773338975337</v>
       </c>
       <c r="F36" t="n">
-        <v>304.9965798960495</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M36" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N36" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W36" t="n">
-        <v>720.6083788665362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X36" t="n">
-        <v>512.7568786610034</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="Y36" t="n">
-        <v>304.9965798960495</v>
+        <v>360.2295980564601</v>
       </c>
     </row>
     <row r="37">
@@ -7154,22 +7156,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="D38" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="E38" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F38" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>592.9597988536757</v>
+        <v>622.424473941237</v>
       </c>
       <c r="C39" t="n">
-        <v>418.5067695725487</v>
+        <v>447.97144466011</v>
       </c>
       <c r="D39" t="n">
-        <v>269.5723599112974</v>
+        <v>299.0370349988588</v>
       </c>
       <c r="E39" t="n">
-        <v>110.334904905842</v>
+        <v>139.7995799934033</v>
       </c>
       <c r="F39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7263,13 +7265,13 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7296,7 +7298,7 @@
         <v>790.6398109613051</v>
       </c>
       <c r="Y39" t="n">
-        <v>761.1751358737438</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C41" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D41" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E41" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="F41" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G41" t="n">
         <v>16.44142755506243</v>
@@ -7418,7 +7420,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
         <v>583.2163723184226</v>
@@ -7430,31 +7432,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S41" t="n">
-        <v>604.3859801240053</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T41" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U41" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V41" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W41" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X41" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="42">
@@ -7476,13 +7478,13 @@
         <v>238.668476211275</v>
       </c>
       <c r="F42" t="n">
-        <v>92.13391823816002</v>
+        <v>238.668476211275</v>
       </c>
       <c r="G42" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="H42" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="I42" t="n">
         <v>16.44142755506243</v>
@@ -7497,13 +7499,13 @@
         <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
-        <v>232.5025681519757</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N42" t="n">
-        <v>435.9652341458732</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O42" t="n">
-        <v>639.4279001397708</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P42" t="n">
         <v>822.0713777531216</v>
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C44" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D44" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E44" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F44" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
@@ -7667,31 +7669,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V44" t="n">
-        <v>614.4775954922324</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="W44" t="n">
-        <v>614.4775954922324</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="X44" t="n">
-        <v>614.4775954922324</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="Y44" t="n">
-        <v>406.8838132313431</v>
+        <v>396.792197863116</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>31.07469395038575</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
@@ -7734,16 +7736,16 @@
         <v>219.90409354896</v>
       </c>
       <c r="M45" t="n">
-        <v>219.90409354896</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N45" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7758,10 +7760,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V45" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W45" t="n">
         <v>614.4775954922324</v>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N2" t="n">
-        <v>401.0105146732905</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>151.2801117021122</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8222,10 +8224,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>401.9436843039723</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>434.9309080348713</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8295,10 +8297,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>230.174158102173</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
         <v>347.6518783602987</v>
@@ -8307,13 +8309,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>290.7443071551351</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>213.1865395540696</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,16 +8692,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8772,19 +8774,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>209.1446748894994</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N12" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -8927,16 +8929,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9243,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9489,16 +9491,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>301.2508595994748</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,19 +9719,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9954,16 +9956,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>301.248502863135</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,22 +10196,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N30" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,22 +10433,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10677,13 +10679,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10911,16 +10913,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>186.8580120236956</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,10 +11068,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11145,7 +11147,7 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>154.8597658442563</v>
+        <v>339.3481270698632</v>
       </c>
       <c r="N42" t="n">
         <v>336.8595565216137</v>
@@ -11154,7 +11156,7 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11382,10 +11384,10 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>154.8597658442563</v>
       </c>
       <c r="N45" t="n">
-        <v>279.489774794024</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22547,16 +22549,16 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D2" t="n">
-        <v>149.1651971824026</v>
+        <v>173.6629242394455</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>235.8466275750188</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
@@ -22589,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22610,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="3">
@@ -22671,19 +22673,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>86.21436345804264</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
-        <v>27.28274271114486</v>
+        <v>218.8571164548248</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -22692,7 +22694,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="4">
@@ -22723,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22781,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
         <v>159.7550473327271</v>
       </c>
       <c r="D5" t="n">
-        <v>173.6629242394455</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22844,7 +22846,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>143.7231242791326</v>
+        <v>168.2208513361757</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22860,13 +22862,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22911,25 +22913,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>124.8204125487101</v>
+        <v>166.6367985405286</v>
       </c>
     </row>
     <row r="7">
@@ -22960,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23021,13 +23023,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23036,13 +23038,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23075,7 +23077,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>82.27482488121163</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23087,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>205.2178212748162</v>
       </c>
     </row>
     <row r="9">
@@ -23100,13 +23102,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23154,19 +23156,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>185.5043079680906</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>85.2502191894132</v>
       </c>
     </row>
     <row r="10">
@@ -23197,10 +23199,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,10 +23223,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23276,10 +23278,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>41.40506154378102</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23315,16 +23317,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>146.7321410888975</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>164.2132562401886</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="12">
@@ -23334,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>27.39499325814317</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23355,7 +23357,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>69.5565833765863</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23382,19 +23384,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23403,7 +23405,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23434,7 +23436,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>140.6136200195524</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23455,7 +23457,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23501,22 +23503,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>41.40506154378102</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,19 +23539,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>37.99065141955279</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23561,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="15">
@@ -23571,16 +23573,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>76.51412793962363</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23622,22 +23624,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>19.14461131358425</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X15" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23671,7 +23673,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>140.6136200195524</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23692,7 +23694,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
         <v>86.16204325169439</v>
@@ -23738,19 +23740,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>380.1208739992256</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23774,22 +23776,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>149.0074258151476</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23856,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>109.1580142581786</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23868,16 +23870,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>201.1924361087609</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23935,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23944,7 +23946,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23972,25 +23974,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>137.1801156868699</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0.7562331984329429</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24017,16 +24019,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24048,10 +24050,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>115.8369145239744</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24066,10 +24068,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>25.47058692184687</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24111,7 +24113,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24133,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24184,7 +24186,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24209,16 +24211,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>203.0173518716929</v>
+        <v>214.9666412263055</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24227,7 +24229,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24269,10 +24271,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,19 +24284,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>24.9501348614133</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24303,10 +24305,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,13 +24335,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>35.7022369148647</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24348,10 +24350,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24403,7 +24405,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>86.16204325169439</v>
@@ -24424,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>153.336030751223</v>
+        <v>156.0574714863295</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24449,7 +24451,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24464,7 +24466,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,28 +24487,28 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>127.4161621813053</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>145.2236497783945</v>
@@ -24522,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24537,7 +24539,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -24576,10 +24578,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>22.34434711050437</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
@@ -24588,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24640,16 +24642,16 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24683,16 +24685,16 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>185.0989125581653</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24731,7 +24733,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24746,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24759,7 +24761,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>90.01494526515906</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24774,7 +24776,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>47.56280698067036</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24856,7 +24858,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I31" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J31" t="n">
         <v>93.35918011667277</v>
@@ -24917,13 +24919,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24932,13 +24934,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,10 +24961,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>148.0596218681135</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -24971,7 +24973,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>210.8693737747013</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24993,19 +24995,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>22.53641281717397</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25017,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>74.66330191025477</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25075,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25123,7 +25125,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25151,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>320.8793262562331</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25175,7 +25177,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25205,13 +25207,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>297.9700923613148</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25236,25 +25238,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>112.6203880166386</v>
       </c>
       <c r="G36" t="n">
-        <v>56.86390315940167</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,25 +25283,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25394,16 +25396,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>154.3469453318533</v>
       </c>
       <c r="E38" t="n">
-        <v>169.6449844288198</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
         <v>98.46051323810809</v>
@@ -25412,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25479,7 +25481,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>25.75595987902526</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25488,10 +25490,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25536,7 +25538,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>176.5126674406187</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25594,7 +25596,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25609,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25628,19 +25630,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>225.855928360474</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25670,22 +25672,22 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>52.06643139743875</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25716,16 +25718,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>62.40795138694402</v>
+        <v>6.735371844975219</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -25862,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>211.7044234967879</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25880,13 +25882,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>170.4039740891423</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25941,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>158.2215652569456</v>
       </c>
       <c r="C45" t="n">
-        <v>158.9681565832035</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25965,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25998,13 +26000,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
         <v>0.2551407651970692</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>418057.7508625691</v>
+        <v>418057.7508625693</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>418057.750862569</v>
+        <v>418057.7508625691</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>440325.782208031</v>
+        <v>440325.7822080312</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>440325.782208031</v>
+        <v>440325.7822080309</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>440325.7822080312</v>
+        <v>440325.782208031</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>440325.7822080312</v>
+        <v>440325.782208031</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>440325.7822080312</v>
+        <v>440325.782208031</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>440325.782208031</v>
+        <v>440325.7822080312</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>440325.7822080313</v>
+        <v>440325.7822080312</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>418057.750862569</v>
+        <v>418057.7508625691</v>
       </c>
     </row>
     <row r="16">
@@ -26311,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>134093.9955596919</v>
+      </c>
+      <c r="C2" t="n">
+        <v>134093.9955596919</v>
+      </c>
+      <c r="D2" t="n">
         <v>134093.9955596918</v>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>134093.9955596918</v>
-      </c>
-      <c r="D2" t="n">
-        <v>134093.9955596919</v>
-      </c>
-      <c r="E2" t="n">
-        <v>134093.9955596919</v>
       </c>
       <c r="F2" t="n">
         <v>134093.9955596918</v>
@@ -26329,7 +26331,7 @@
         <v>141236.5716516325</v>
       </c>
       <c r="H2" t="n">
-        <v>141236.5716516326</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="I2" t="n">
         <v>141236.5716516325</v>
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18943.34247722131</v>
+        <v>18943.34247722134</v>
       </c>
       <c r="C6" t="n">
+        <v>87817.0990589112</v>
+      </c>
+      <c r="D6" t="n">
         <v>87817.09905891115</v>
-      </c>
-      <c r="D6" t="n">
-        <v>87817.09905891118</v>
       </c>
       <c r="E6" t="n">
         <v>121444.6990589112</v>
@@ -26540,10 +26542,10 @@
         <v>126403.3703901669</v>
       </c>
       <c r="I6" t="n">
-        <v>126403.3703901669</v>
+        <v>126403.3703901668</v>
       </c>
       <c r="J6" t="n">
-        <v>72630.85949995743</v>
+        <v>72630.85949995747</v>
       </c>
       <c r="K6" t="n">
         <v>126403.3703901669</v>
@@ -26552,7 +26554,7 @@
         <v>126403.3703901669</v>
       </c>
       <c r="M6" t="n">
-        <v>126403.3703901669</v>
+        <v>126403.3703901668</v>
       </c>
       <c r="N6" t="n">
         <v>126403.3703901669</v>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
+        <v>185.0873001866707</v>
+      </c>
+      <c r="N2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N2" t="n">
-        <v>171.5974510766996</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>12.72573192223801</v>
+      </c>
+      <c r="M3" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
@@ -34796,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,10 +34944,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N5" t="n">
         <v>171.5974510766996</v>
-      </c>
-      <c r="N5" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35015,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
         <v>205.5178444382804</v>
@@ -35027,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35255,22 +35257,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,16 +35412,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35492,19 +35494,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>70.5902951096252</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35647,16 +35649,16 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35890,7 +35892,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35963,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36209,16 +36211,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,19 +36439,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36674,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>169.9067907798017</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36692,7 +36694,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,22 +36916,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="N30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N30" t="n">
-        <v>240.0046611659691</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37075,7 +37077,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37151,22 +37153,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
@@ -37397,13 +37399,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37551,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37631,16 +37633,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>55.51629994036225</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,10 +37788,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N41" t="n">
         <v>81.03173866048648</v>
-      </c>
-      <c r="N41" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37865,7 +37867,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>12.72573192223801</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="N42" t="n">
         <v>205.5178444382804</v>
@@ -37874,7 +37876,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38102,10 +38104,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="N45" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
@@ -38114,7 +38116,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>843622.5078431112</v>
+        <v>739390.0095796678</v>
       </c>
     </row>
     <row r="7">
@@ -658,76 +658,76 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C2" t="n">
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D2" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
-        <v>13.94347069460048</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>80.86228322859426</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,73 +895,73 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>21.16030022554292</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C5" t="n">
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="Y6" t="n">
-        <v>39.04589723677579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,67 +1132,67 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="C8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,16 +1211,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
+        <v>9.336946277399601</v>
+      </c>
+      <c r="X9" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
       <c r="Y9" t="n">
-        <v>120.4324765878912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,16 +1332,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1369,17 +1369,17 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
@@ -1390,10 +1390,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1414,10 +1414,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>120.0500723064956</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1499,19 +1499,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>80.11569190233639</v>
       </c>
       <c r="U12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1606,31 +1606,31 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>21.16030022554292</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1651,13 +1651,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1694,22 +1694,22 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1739,19 +1739,19 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
+        <v>39.01596068304831</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V15" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W15" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1843,73 +1843,73 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E17" t="n">
-        <v>1.809496073036132</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>24.00235464595601</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1979,7 +1979,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>4.580549094716531</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2086,19 +2086,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2125,16 +2125,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>31.60815104066432</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2207,22 +2207,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>84.0572199420196</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2323,70 +2323,70 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="V23" t="n">
+        <v>9.737236172019017</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G23" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2402,13 +2402,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>120.1190775319706</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2417,10 +2417,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2447,22 +2447,22 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2563,19 +2563,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>202.2946864288972</v>
+        <v>9.73723617201896</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2690,10 +2690,10 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>203.5970349704704</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
@@ -2702,7 +2702,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="28">
@@ -2794,20 +2794,20 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>230.2038249569697</v>
-      </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2873,13 +2873,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>82.69355372315668</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>103.7130553628818</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2927,19 +2927,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>241.0142888776591</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>51.72215467797748</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,19 +3107,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>122.5327995762099</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3164,19 +3164,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>65.13060206523731</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3189,13 +3189,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>33.80371536444981</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>9.737236172019017</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3310,22 +3310,22 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3344,19 +3344,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>32.44882437674524</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3395,22 +3395,22 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3444,49 +3444,49 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>241.0142888776591</v>
@@ -3517,16 +3517,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="H38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3581,31 +3581,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>8.085252827476559</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>119.3132525143586</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3632,19 +3632,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>21.16030022554292</v>
+      </c>
+      <c r="E41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D41" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
       <c r="F41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>205.5178444382804</v>
@@ -3784,10 +3784,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3833,13 +3833,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>130.6081453182354</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3875,19 +3875,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>8.311618392921693</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4067,10 +4067,10 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>43.67660021802678</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4112,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C2" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D2" t="n">
         <v>16.44142755506243</v>
@@ -4333,10 +4333,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>196.517279139721</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M2" t="n">
         <v>379.753706324525</v>
@@ -4354,28 +4354,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="V2" t="n">
-        <v>822.0713777531216</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="W2" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X2" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y2" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="3">
@@ -4385,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>29.03990215807806</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>232.5025681519757</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N3" t="n">
         <v>435.9652341458732</v>
@@ -4433,28 +4433,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>648.6540332037905</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T3" t="n">
-        <v>446.4674385625565</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U3" t="n">
-        <v>238.8736563016672</v>
+        <v>513.308066045118</v>
       </c>
       <c r="V3" t="n">
-        <v>224.7893424687375</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="W3" t="n">
-        <v>224.7893424687375</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="X3" t="n">
-        <v>224.7893424687375</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="4">
@@ -4512,19 +4512,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W4" t="n">
         <v>16.44142755506243</v>
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>245.4092504478133</v>
+      </c>
+      <c r="C5" t="n">
         <v>224.0352098159517</v>
       </c>
-      <c r="C5" t="n">
-        <v>16.44142755506243</v>
-      </c>
       <c r="D5" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E5" t="n">
         <v>16.44142755506243</v>
@@ -4579,7 +4579,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>672.8764276104736</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O5" t="n">
         <v>822.0713777531216</v>
@@ -4588,31 +4588,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W5" t="n">
-        <v>639.2227743377304</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="X5" t="n">
-        <v>639.2227743377304</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y5" t="n">
-        <v>431.628992076841</v>
+        <v>245.4092504478133</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>339.8288664974407</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C6" t="n">
-        <v>165.3758372163137</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D6" t="n">
         <v>16.44142755506243</v>
@@ -4649,16 +4649,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>219.90409354896</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M6" t="n">
-        <v>423.3667595428576</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N6" t="n">
-        <v>423.3667595428576</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O6" t="n">
         <v>570.0333416264414</v>
@@ -4670,28 +4670,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T6" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U6" t="n">
-        <v>547.4845037566762</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V6" t="n">
-        <v>547.4845037566762</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W6" t="n">
-        <v>547.4845037566762</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X6" t="n">
-        <v>547.4845037566762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y6" t="n">
-        <v>508.0442035175087</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="7">
@@ -4749,19 +4749,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="R7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W7" t="n">
         <v>16.44142755506243</v>
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C8" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D8" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E8" t="n">
         <v>16.44142755506243</v>
@@ -4813,7 +4813,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
         <v>583.2163723184226</v>
@@ -4828,28 +4828,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="W8" t="n">
-        <v>822.0713777531216</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="X8" t="n">
-        <v>822.0713777531216</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="Y8" t="n">
-        <v>639.2227743377304</v>
+        <v>255.5008658160403</v>
       </c>
     </row>
     <row r="9">
@@ -4859,13 +4859,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>324.6132922217692</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C9" t="n">
-        <v>324.6132922217692</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D9" t="n">
-        <v>175.6788825605179</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E9" t="n">
         <v>16.44142755506243</v>
@@ -4892,13 +4892,13 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N9" t="n">
-        <v>752.1869855945927</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O9" t="n">
-        <v>822.0713777531216</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P9" t="n">
         <v>822.0713777531216</v>
@@ -4910,25 +4910,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="V9" t="n">
-        <v>822.0713777531216</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="W9" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X9" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y9" t="n">
-        <v>492.8286292418372</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4980,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C11" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D11" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E11" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F11" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G11" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
         <v>583.2163723184226</v>
@@ -5062,31 +5062,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W11" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X11" t="n">
-        <v>614.4775954922324</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="Y11" t="n">
-        <v>406.8838132313431</v>
+        <v>245.4092504478133</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>137.7041268545529</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C12" t="n">
-        <v>137.7041268545529</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
@@ -5126,19 +5126,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2616536067974</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="M12" t="n">
-        <v>435.9652341458732</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N12" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O12" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P12" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5147,25 +5147,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S12" t="n">
-        <v>547.4845037566762</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T12" t="n">
-        <v>345.2979091154422</v>
+        <v>639.976906990516</v>
       </c>
       <c r="U12" t="n">
-        <v>137.7041268545529</v>
+        <v>432.3831247296267</v>
       </c>
       <c r="V12" t="n">
-        <v>137.7041268545529</v>
+        <v>224.7893424687375</v>
       </c>
       <c r="W12" t="n">
-        <v>137.7041268545529</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="X12" t="n">
-        <v>137.7041268545529</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="Y12" t="n">
-        <v>137.7041268545529</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5226,25 +5226,25 @@
         <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C14" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D14" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E14" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F14" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G14" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
@@ -5287,43 +5287,43 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S14" t="n">
-        <v>614.4775954922324</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T14" t="n">
-        <v>614.4775954922324</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U14" t="n">
-        <v>614.4775954922324</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V14" t="n">
-        <v>614.4775954922324</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W14" t="n">
-        <v>614.4775954922324</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="X14" t="n">
-        <v>614.4775954922324</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="Y14" t="n">
-        <v>406.8838132313431</v>
+        <v>453.0030327087026</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16.44142755506243</v>
+        <v>575.067534196224</v>
       </c>
       <c r="C15" t="n">
-        <v>16.44142755506243</v>
+        <v>575.067534196224</v>
       </c>
       <c r="D15" t="n">
-        <v>16.44142755506243</v>
+        <v>575.067534196224</v>
       </c>
       <c r="E15" t="n">
-        <v>16.44142755506243</v>
+        <v>415.8300791907684</v>
       </c>
       <c r="F15" t="n">
-        <v>16.44142755506243</v>
+        <v>269.2955212176533</v>
       </c>
       <c r="G15" t="n">
-        <v>16.44142755506243</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="H15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5366,16 +5366,16 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>345.2616536067974</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N15" t="n">
-        <v>366.5706756325438</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
@@ -5387,22 +5387,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>431.628992076841</v>
+        <v>782.6613164571132</v>
       </c>
       <c r="V15" t="n">
-        <v>224.0352098159517</v>
+        <v>782.6613164571132</v>
       </c>
       <c r="W15" t="n">
-        <v>16.44142755506243</v>
+        <v>782.6613164571132</v>
       </c>
       <c r="X15" t="n">
-        <v>16.44142755506243</v>
+        <v>575.067534196224</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.44142755506243</v>
+        <v>575.067534196224</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5472,16 +5472,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>962.2293816994886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>44.28007843568128</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>496.4894350879777</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O18" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5627,19 +5627,19 @@
         <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="W18" t="n">
-        <v>23.90796037760316</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>44.28007843568128</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>44.28007843568128</v>
       </c>
     </row>
     <row r="19">
@@ -5697,19 +5697,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>953.9655401424092</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="C20" t="n">
-        <v>953.9655401424092</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="D20" t="n">
-        <v>710.516763498309</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="E20" t="n">
-        <v>467.067986854209</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="F20" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U20" t="n">
-        <v>953.9655401424092</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V20" t="n">
-        <v>953.9655401424092</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W20" t="n">
-        <v>953.9655401424092</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X20" t="n">
-        <v>953.9655401424092</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y20" t="n">
-        <v>953.9655401424092</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="21">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>51.20856840381305</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>51.20856840381305</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
         <v>19.28114311021272</v>
@@ -5834,49 +5834,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N21" t="n">
-        <v>726.4525409563269</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="U21" t="n">
-        <v>259.0600686093459</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V21" t="n">
-        <v>259.0600686093459</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W21" t="n">
-        <v>259.0600686093459</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X21" t="n">
-        <v>51.20856840381305</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>51.20856840381305</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F22" t="n">
         <v>19.28114311021272</v>
@@ -5946,16 +5946,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>720.6083788665362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C23" t="n">
-        <v>720.6083788665362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D23" t="n">
-        <v>477.1596022224361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E23" t="n">
-        <v>477.1596022224361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F23" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G23" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H23" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V23" t="n">
-        <v>720.6083788665362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W23" t="n">
-        <v>720.6083788665362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X23" t="n">
-        <v>720.6083788665362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y23" t="n">
-        <v>720.6083788665362</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>380.6017161145382</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>380.6017161145382</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>231.667306453287</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>231.667306453287</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>257.8852890990952</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6095,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>588.4532163200711</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V24" t="n">
-        <v>588.4532163200711</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W24" t="n">
-        <v>588.4532163200711</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X24" t="n">
-        <v>380.6017161145382</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
-        <v>380.6017161145382</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6253,25 +6253,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>749.627473042513</v>
+        <v>944.1299480494607</v>
       </c>
       <c r="T26" t="n">
-        <v>749.627473042513</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U26" t="n">
-        <v>506.1786963984129</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V26" t="n">
-        <v>506.1786963984129</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="W26" t="n">
-        <v>506.1786963984129</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>307.1033079837604</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
         <v>19.28114311021272</v>
@@ -6308,22 +6308,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>257.8852890990952</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6338,19 +6338,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>758.4035848333933</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>758.4035848333933</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>514.9548081892932</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>307.1033079837604</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y27" t="n">
-        <v>307.1033079837604</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E29" t="n">
-        <v>251.810259228364</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F29" t="n">
-        <v>251.810259228364</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>738.7078125165641</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U29" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6518,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>102.8099852548154</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>124.0418050929216</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>124.0418050929216</v>
       </c>
       <c r="E30" t="n">
         <v>19.28114311021272</v>
@@ -6545,22 +6545,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6575,19 +6575,19 @@
         <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>761.8705608694022</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V30" t="n">
-        <v>761.8705608694022</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W30" t="n">
-        <v>518.4217842253022</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X30" t="n">
-        <v>310.5702840197694</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="Y30" t="n">
-        <v>102.8099852548154</v>
+        <v>298.4948343740486</v>
       </c>
     </row>
     <row r="31">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>475.3318284112885</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C32" t="n">
-        <v>475.3318284112885</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D32" t="n">
-        <v>475.3318284112885</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E32" t="n">
-        <v>475.3318284112885</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F32" t="n">
-        <v>475.3318284112885</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G32" t="n">
-        <v>475.3318284112885</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H32" t="n">
         <v>231.8830517671884</v>
@@ -6724,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>962.2293816994886</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T32" t="n">
-        <v>962.2293816994886</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U32" t="n">
-        <v>718.7806050553886</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V32" t="n">
-        <v>718.7806050553886</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W32" t="n">
-        <v>718.7806050553886</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="X32" t="n">
-        <v>718.7806050553886</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="Y32" t="n">
-        <v>475.3318284112885</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="33">
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>451.2235123993538</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>451.2235123993538</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>302.2891027381025</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>143.051647732647</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
         <v>19.28114311021272</v>
@@ -6782,19 +6782,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N33" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
         <v>894.6625969973069</v>
@@ -6803,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>862.8876260635219</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W33" t="n">
-        <v>619.4388494194218</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X33" t="n">
-        <v>619.4388494194218</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y33" t="n">
-        <v>619.4388494194218</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6837,10 +6837,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
         <v>19.28114311021272</v>
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>509.4769954460863</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="C35" t="n">
-        <v>266.0282188019862</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="D35" t="n">
-        <v>231.8830517671884</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E35" t="n">
-        <v>231.8830517671884</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="F35" t="n">
-        <v>231.8830517671884</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="G35" t="n">
-        <v>231.8830517671884</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="H35" t="n">
-        <v>231.8830517671884</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>29.11673520316123</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>752.9257720901863</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U35" t="n">
-        <v>752.9257720901863</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V35" t="n">
-        <v>752.9257720901863</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="W35" t="n">
-        <v>752.9257720901863</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="X35" t="n">
-        <v>752.9257720901863</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="Y35" t="n">
-        <v>752.9257720901863</v>
+        <v>241.7186438601369</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>360.2295980564601</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C36" t="n">
-        <v>360.2295980564601</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D36" t="n">
-        <v>211.2951883952089</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
-        <v>52.05773338975337</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>74.24228005117135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7043,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>360.2295980564601</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>360.2295980564601</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>360.2295980564601</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X36" t="n">
-        <v>360.2295980564601</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y36" t="n">
-        <v>360.2295980564601</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="C38" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="D38" t="n">
-        <v>761.6974622895962</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="E38" t="n">
-        <v>518.2486856454962</v>
+        <v>485.167420504237</v>
       </c>
       <c r="F38" t="n">
-        <v>274.7999090013961</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="G38" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
     </row>
     <row r="39">
@@ -7229,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>622.424473941237</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C39" t="n">
-        <v>447.97144466011</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D39" t="n">
-        <v>299.0370349988588</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="E39" t="n">
-        <v>139.7995799934033</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>656.0584510084244</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
         <v>894.6625969973069</v>
@@ -7280,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>790.6398109613051</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>790.6398109613051</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>790.6398109613051</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>790.6398109613051</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y39" t="n">
-        <v>790.6398109613051</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G40" t="n">
         <v>19.28114311021272</v>
@@ -7371,13 +7371,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="C41" t="n">
-        <v>614.4775954922324</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="D41" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E41" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F41" t="n">
         <v>224.0352098159517</v>
@@ -7423,7 +7423,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O41" t="n">
         <v>732.4113224610707</v>
@@ -7432,31 +7432,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U41" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V41" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W41" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="X41" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="Y41" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>238.668476211275</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C42" t="n">
-        <v>238.668476211275</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D42" t="n">
-        <v>238.668476211275</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E42" t="n">
-        <v>238.668476211275</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
-        <v>238.668476211275</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G42" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H42" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I42" t="n">
         <v>16.44142755506243</v>
@@ -7493,19 +7493,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>219.90409354896</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M42" t="n">
-        <v>415.1460457653264</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N42" t="n">
-        <v>618.608711759224</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O42" t="n">
-        <v>822.0713777531216</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P42" t="n">
         <v>822.0713777531216</v>
@@ -7523,19 +7523,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V42" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W42" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X42" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y42" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="43">
@@ -7596,10 +7596,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="S43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U43" t="n">
         <v>16.44142755506243</v>
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="C44" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="D44" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="E44" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="F44" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="C44" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="D44" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="E44" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="F44" t="n">
-        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
         <v>16.44142755506243</v>
@@ -7669,31 +7669,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V44" t="n">
-        <v>604.3859801240053</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W44" t="n">
-        <v>604.3859801240053</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X44" t="n">
-        <v>604.3859801240053</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.792197863116</v>
+        <v>639.2227743377304</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>190.8944568361894</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C45" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D45" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E45" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="G45" t="n">
         <v>16.44142755506243</v>
@@ -7730,22 +7730,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>232.5025681519757</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N45" t="n">
-        <v>435.9652341458732</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O45" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P45" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7760,16 +7760,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V45" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W45" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X45" t="n">
-        <v>406.8838132313431</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y45" t="n">
         <v>199.2900309704538</v>
@@ -7833,16 +7833,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="S46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W46" t="n">
         <v>16.44142755506243</v>
@@ -7981,13 +7981,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M2" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
@@ -8060,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>151.2801117021122</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
@@ -8227,10 +8227,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>401.0105146732905</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P5" t="n">
         <v>231.2329957552695</v>
@@ -8297,19 +8297,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O6" t="n">
-        <v>290.7443071551351</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8461,10 +8461,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8540,16 +8540,16 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>213.1865395540696</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8692,16 +8692,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N11" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8774,13 +8774,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>160.0786444523452</v>
       </c>
       <c r="M12" t="n">
-        <v>233.7538122443171</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
         <v>348.1140888827248</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8935,16 +8935,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N14" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9014,19 +9014,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>152.8659767558044</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,10 +9482,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
@@ -9494,13 +9494,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O24" t="n">
-        <v>360.302996258564</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,16 +9956,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>349.0484638974528</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>359.8407857361378</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,22 +10430,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>301.2508595994748</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10676,7 +10676,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,13 +10913,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>301.2508595994748</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11071,10 +11071,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11141,13 +11141,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>339.3481270698632</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N42" t="n">
         <v>336.8595565216137</v>
@@ -11156,7 +11156,7 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11378,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>154.8597658442563</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O45" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>173.6629242394455</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22594,28 +22594,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>318.0899692773253</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22649,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
-        <v>218.8571164548248</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>124.9107019748832</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22752,7 +22752,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>344.1125915454646</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22828,10 +22828,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22846,10 +22846,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>168.2208513361757</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -22862,13 +22862,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>24.75286782224003</v>
       </c>
       <c r="Y6" t="n">
-        <v>166.6367985405286</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22989,7 +22989,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>351.5828422233929</v>
       </c>
       <c r="C8" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>149.1651971824026</v>
       </c>
       <c r="E8" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23068,7 +23068,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23077,10 +23077,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.2178212748162</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,16 +23099,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23150,25 +23150,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
-        <v>46.1771387226392</v>
+        <v>242.35803688352</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
-        <v>85.2502191894132</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23205,7 +23205,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,16 +23220,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>361.5735414379376</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23278,10 +23278,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>41.40506154378102</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,10 +23302,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23320,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X11" t="n">
         <v>164.2132562401886</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23342,7 +23342,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>27.39499325814317</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23360,7 +23360,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23387,19 +23387,19 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>120.0490367924852</v>
       </c>
       <c r="U12" t="n">
         <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>177.2159972252002</v>
+        <v>361.5735414379376</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23506,19 +23506,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>41.40506154378102</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,13 +23539,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23582,22 +23582,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23627,19 +23627,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>19.14461131358425</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>20.42353764269441</v>
+        <v>186.9254213979265</v>
       </c>
       <c r="V15" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>330.3082731757329</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E17" t="n">
-        <v>380.1208739992256</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23776,10 +23776,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23797,7 +23797,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23813,7 +23813,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>148.7061443423597</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23834,7 +23834,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23867,7 +23867,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23876,7 +23876,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>201.1924361087609</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23937,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23974,19 +23974,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>294.5471194344777</v>
       </c>
       <c r="G20" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1801156868699</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24013,16 +24013,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24053,7 +24053,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>115.8369145239744</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24095,22 +24095,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>116.107508752802</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G22" t="n">
         <v>167.9909793584588</v>
@@ -24186,7 +24186,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24211,25 +24211,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>214.9666412263055</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24259,13 +24259,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>318.0150222981159</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24290,13 +24290,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>24.9501348614133</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24305,10 +24305,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24335,22 +24335,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24405,7 +24405,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
         <v>86.16204325169439</v>
@@ -24414,7 +24414,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>156.0574714863295</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24451,19 +24451,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24493,13 +24493,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>6.725383157348119</v>
+        <v>199.2828334142264</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24524,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24539,7 +24539,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -24578,10 +24578,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>22.34434711050437</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="28">
@@ -24682,19 +24682,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>185.0989125581653</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24724,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24736,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>31.13252716541155</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24761,13 +24761,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>90.01494526515906</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>53.93202509251918</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24815,19 +24815,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24934,7 +24934,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24964,13 +24964,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>148.0596218681135</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>10.33136403017744</v>
@@ -24979,13 +24979,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>297.5188140394355</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24995,19 +24995,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>22.53641281717397</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25052,19 +25052,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>186.5643810956823</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25077,13 +25077,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>320.8793262562331</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25177,7 +25177,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>2.2120531825935</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,22 +25198,22 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25232,19 +25232,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>137.4807660112426</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>112.6203880166386</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25256,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25283,22 +25283,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25332,7 +25332,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25396,7 +25396,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>154.3469453318533</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>140.9160811946027</v>
@@ -25405,16 +25405,16 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>195.0896117727101</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25444,7 +25444,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25469,31 +25469,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>139.3598127371622</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>25.75595987902526</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25520,19 +25520,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H40" t="n">
         <v>162.2271725074396</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C41" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>149.1651971824026</v>
+        <v>333.52274139514</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F41" t="n">
-        <v>225.855928360474</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>209.7848930768546</v>
@@ -25672,10 +25672,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25721,13 +25721,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>6.735371844975219</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -25763,19 +25763,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W42" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>24.75286782224003</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25836,13 +25836,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>211.7044234967879</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25924,16 +25924,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>188.7109832972317</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25943,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>158.2215652569456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25955,10 +25955,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>101.3926121753571</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -26000,19 +26000,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26073,7 +26073,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>418057.7508625693</v>
+        <v>418057.750862569</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>418057.7508625691</v>
+        <v>418057.750862569</v>
       </c>
     </row>
     <row r="5">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>440325.7822080312</v>
+        <v>440325.782208031</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>440325.7822080312</v>
+        <v>440325.782208031</v>
       </c>
     </row>
     <row r="15">
@@ -26319,13 +26319,13 @@
         <v>134093.9955596919</v>
       </c>
       <c r="D2" t="n">
-        <v>134093.9955596918</v>
+        <v>134093.9955596919</v>
       </c>
       <c r="E2" t="n">
-        <v>134093.9955596918</v>
+        <v>134093.9955596919</v>
       </c>
       <c r="F2" t="n">
-        <v>134093.9955596918</v>
+        <v>134093.9955596919</v>
       </c>
       <c r="G2" t="n">
         <v>141236.5716516325</v>
@@ -26349,7 +26349,7 @@
         <v>141236.5716516325</v>
       </c>
       <c r="N2" t="n">
-        <v>141236.5716516325</v>
+        <v>141236.5716516326</v>
       </c>
       <c r="O2" t="n">
         <v>134093.9955596919</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18943.34247722134</v>
+        <v>6305.180322360837</v>
       </c>
       <c r="C6" t="n">
-        <v>87817.0990589112</v>
+        <v>75178.9369040507</v>
       </c>
       <c r="D6" t="n">
-        <v>87817.09905891115</v>
+        <v>75178.93690405067</v>
       </c>
       <c r="E6" t="n">
-        <v>121444.6990589112</v>
+        <v>108806.5369040507</v>
       </c>
       <c r="F6" t="n">
-        <v>121444.6990589112</v>
+        <v>108806.5369040507</v>
       </c>
       <c r="G6" t="n">
-        <v>116674.3274159998</v>
+        <v>104456.3167959593</v>
       </c>
       <c r="H6" t="n">
-        <v>126403.3703901669</v>
+        <v>114185.3597701264</v>
       </c>
       <c r="I6" t="n">
-        <v>126403.3703901668</v>
+        <v>114185.3597701264</v>
       </c>
       <c r="J6" t="n">
-        <v>72630.85949995747</v>
+        <v>60412.84887991697</v>
       </c>
       <c r="K6" t="n">
-        <v>126403.3703901669</v>
+        <v>114185.3597701264</v>
       </c>
       <c r="L6" t="n">
-        <v>126403.3703901669</v>
+        <v>114185.3597701264</v>
       </c>
       <c r="M6" t="n">
-        <v>126403.3703901668</v>
+        <v>114185.3597701264</v>
       </c>
       <c r="N6" t="n">
-        <v>126403.3703901669</v>
+        <v>114185.3597701265</v>
       </c>
       <c r="O6" t="n">
-        <v>121444.6990589112</v>
+        <v>108806.5369040507</v>
       </c>
       <c r="P6" t="n">
-        <v>121444.6990589112</v>
+        <v>108806.5369040507</v>
       </c>
     </row>
   </sheetData>
@@ -34701,13 +34701,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M2" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>12.72573192223801</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
@@ -34947,10 +34947,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35017,19 +35017,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O6" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35181,10 +35181,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N8" t="n">
         <v>81.03173866048648</v>
-      </c>
-      <c r="N8" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35260,16 +35260,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
+        <v>91.61977832229879</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="N9" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="O9" t="n">
-        <v>70.5902951096252</v>
-      </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35412,16 +35412,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
+        <v>185.0873001866707</v>
+      </c>
+      <c r="N11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N11" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35494,13 +35494,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
+        <v>21.52426467247106</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M12" t="n">
-        <v>91.61977832229879</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>205.5178444382804</v>
@@ -35509,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35655,16 +35655,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
+        <v>171.5974510766996</v>
+      </c>
+      <c r="N14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N14" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35734,19 +35734,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
-        <v>21.52426467247106</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,10 +36202,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
@@ -36214,13 +36214,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N24" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O24" t="n">
-        <v>217.7067518141195</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>217.7067518141195</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36694,7 +36694,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36931,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>169.9091475161415</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
@@ -37396,7 +37396,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37405,7 +37405,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
@@ -37633,13 +37633,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>169.9091475161415</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>70.09551364982758</v>
@@ -37791,10 +37791,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37861,13 +37861,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>197.2140931478448</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N42" t="n">
         <v>205.5178444382804</v>
@@ -37876,7 +37876,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>12.72573192223801</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
